--- a/회로/병렬저항 계산.xlsx
+++ b/회로/병렬저항 계산.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\작업 자료\대학&amp;개인\meta\회로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92302D4A-2C8D-403F-8981-CDF09D82ECD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09DFE68-2D93-4CA5-8580-F5B0A4FD766B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{070461D6-9BE1-4D89-A5DC-28C1D56B6821}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -97,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -165,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -495,7 +495,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -533,16 +533,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>6.2</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="F2">
         <v>1024</v>
@@ -551,7 +551,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>$A$2</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -561,11 +561,11 @@
       </c>
       <c r="D3" s="1">
         <f>A3</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <f>$E$2</f>
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="F3" s="2">
         <f>(1024*E3) /(D3+E3)</f>
@@ -585,29 +585,29 @@
       </c>
       <c r="B4" s="3">
         <f>$B$2</f>
-        <v>60</v>
+        <v>6.2</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="1">
         <f>B4</f>
-        <v>60</v>
+        <v>6.2</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E9" si="0">$E$2</f>
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:G27" si="1">(1024*E4) /(D4+E4)</f>
-        <v>363.35483870967744</v>
+        <f t="shared" ref="F4:F9" si="1">(1024*E4) /(D4+E4)</f>
+        <v>355.70526315789471</v>
       </c>
       <c r="G4" s="2">
-        <v>363.35483870967744</v>
+        <v>355.70526315789471</v>
       </c>
       <c r="H4" s="2">
         <f>G4-G3</f>
-        <v>109.27965073975264</v>
+        <v>101.63007518796991</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -619,15 +619,15 @@
       </c>
       <c r="C5" s="3">
         <f>$C$2</f>
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="D5" s="1">
         <f>C5</f>
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
@@ -638,60 +638,60 @@
       </c>
       <c r="H5" s="2">
         <f t="shared" ref="H5:H9" si="2">G5-G4</f>
-        <v>59.04516129032254</v>
+        <v>66.694736842105272</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f>$A$2</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <f>$B$2</f>
-        <v>60</v>
+        <v>6.2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="1">
         <f>1/(1/A6 + 1/B6)</f>
-        <v>37.5</v>
+        <v>3.8271604938271606</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>479.31914893617022</v>
+        <v>474.12991512212017</v>
       </c>
       <c r="G6" s="2">
-        <v>479.31914893617022</v>
+        <v>474.12991512212017</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>56.919148936170245</v>
+        <v>51.72991512212019</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f>A6</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="3">
         <f>$C$2</f>
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="D7" s="1">
         <f>1/(1/A7 + 1/C7)</f>
-        <v>31.972789115646261</v>
+        <v>3.1972789115646258</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>40.775500838722451</v>
+        <v>45.964734652772506</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -711,63 +711,63 @@
       </c>
       <c r="B8" s="3">
         <f>$B$2</f>
-        <v>60</v>
+        <v>6.2</v>
       </c>
       <c r="C8" s="3">
         <f>$C$2</f>
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="D8" s="1">
         <f>1/(1/B8 + 1/C8)</f>
-        <v>26.355140186915889</v>
+        <v>2.6733944954128441</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>569.31884742560226</v>
+        <v>565.70849331899865</v>
       </c>
       <c r="G8" s="2">
-        <v>569.31884742560226</v>
+        <v>565.70849331899865</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>49.224197650709584</v>
+        <v>45.613843544105976</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f>$A$2</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <f>$B$2</f>
-        <v>60</v>
+        <v>6.2</v>
       </c>
       <c r="C9" s="3">
         <f>$C$2</f>
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="D9" s="1">
         <f>1/(1/A9 +1/B9+ 1/C9)</f>
-        <v>20.857988165680474</v>
+        <v>2.1094541769219632</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>627.42781806196444</v>
+        <v>624.68409741161724</v>
       </c>
       <c r="G9" s="2">
-        <v>627.42781806196444</v>
+        <v>624.68409741161724</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>58.108970636362187</v>
+        <v>58.975604092618596</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
